--- a/models/template.xlsx
+++ b/models/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="playground" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>场地名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,22 @@
   </si>
   <si>
     <t>东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -585,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,8 +634,8 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
       <c r="F2">
         <v>1244</v>
@@ -632,8 +648,8 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
       <c r="F3">
         <v>34234</v>
@@ -646,8 +662,8 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>31</v>
       </c>
       <c r="F4">
         <v>67224</v>
@@ -660,8 +676,8 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="F5">
         <v>100214</v>
@@ -674,8 +690,8 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="F6">
         <v>133204</v>
@@ -688,8 +704,8 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="F7">
         <v>166194</v>
@@ -702,8 +718,8 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="F8">
         <v>199184</v>
@@ -716,8 +732,8 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="F9">
         <v>232174</v>

--- a/models/template.xlsx
+++ b/models/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\easy_match_run\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\djx\lx\easy_match\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="playground" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>场地名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,22 @@
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,39 +567,51 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -594,6 +622,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -601,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/models/template.xlsx
+++ b/models/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="playground" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
